--- a/2020-9-13/sanfang_depot/user_info.xlsx
+++ b/2020-9-13/sanfang_depot/user_info.xlsx
@@ -442,1700 +442,1700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>刘慧</t>
+          <t>黄凤兰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13210660673</t>
+          <t>13910907596</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>重庆市大冶市锡山石家庄路b座 651920</t>
+          <t>辽宁省秀华市花溪王街a座 962662</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>赖静</t>
+          <t>尚琴</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18554346175</t>
+          <t>18530905747</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西藏自治区宜都县沈河陈街m座 836827</t>
+          <t>四川省长春县锡山郑路l座 595781</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>刘洁</t>
+          <t>胡琳</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13007009965</t>
+          <t>15627843967</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>湖南省南京县翔安乌鲁木齐街e座 140192</t>
+          <t>上海市淑兰县魏都孙路r座 180503</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>宁宁</t>
+          <t>谌桂香</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18737017265</t>
+          <t>15204228568</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>江西省上海市牧野周路J座 985244</t>
+          <t>湖南省桂珍县秀英刘路f座 567529</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>叶柳</t>
+          <t>吴龙</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14539186079</t>
+          <t>18196386713</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>四川省慧县清浦沈阳路h座 386218</t>
+          <t>陕西省南昌县龙潭侯街D座 841894</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>刘波</t>
+          <t>胡鹏</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18868890773</t>
+          <t>13148757287</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江苏省洁市怀柔澳门街P座 136239</t>
+          <t>西藏自治区福州市龙潭陈街e座 193517</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>赵雪梅</t>
+          <t>何秀英</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18726756303</t>
+          <t>14599707350</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>湖南省阜新县长寿王路S座 708850</t>
+          <t>河北省雪县西峰呼和浩特路T座 417740</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>吴凤英</t>
+          <t>杨玉</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18936905584</t>
+          <t>13256113324</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海南省俊县南湖南宁街w座 949918</t>
+          <t>江西省北镇县门头沟李路G座 736523</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>叶玲</t>
+          <t>谷旭</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13498019605</t>
+          <t>18904275746</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安徽省刚市长寿嘉禾街F座 565864</t>
+          <t>上海市成都市清城蔡街w座 742538</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>吴桂芳</t>
+          <t>孟丽华</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13494146031</t>
+          <t>15355886443</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天津市志强市萧山翁路o座 741269</t>
+          <t>吉林省勇市璧山福州街w座 506875</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>刘畅</t>
+          <t>刘平</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13190411743</t>
+          <t>18965247731</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广东省想县沙湾张街W座 654378</t>
+          <t>江苏省秀荣县城东济南街H座 572745</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>李彬</t>
+          <t>李燕</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13831154379</t>
+          <t>15919844192</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>江苏省晶市牧野昆明街U座 435823</t>
+          <t>山西省海门县永川张街o座 333065</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>陈丽</t>
+          <t>朱畅</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13299751125</t>
+          <t>14585926309</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安徽省沈阳县合川蒋街N座 848200</t>
+          <t>重庆市海燕县黄浦曹路y座 281789</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>鞠建平</t>
+          <t>王璐</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>18761465358</t>
+          <t>15995079814</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>台湾省兴安盟市长寿何路d座 910150</t>
+          <t>湖北省马鞍山县城东李街D座 740836</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>张莹</t>
+          <t>霍健</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15034927266</t>
+          <t>13309693096</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>甘肃省淑英县安次沈阳街k座 852839</t>
+          <t>河北省西宁县南溪潜江街e座 388734</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>黄莉</t>
+          <t>马瑜</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18936235921</t>
+          <t>13006793105</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>江苏省阜新县沙湾王街t座 969031</t>
+          <t>山西省桂荣市西峰杨街Y座 288254</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>沈鑫</t>
+          <t>潘文</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15104764106</t>
+          <t>14550055711</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广西壮族自治区合肥县淄川巢湖路P座 485101</t>
+          <t>陕西省秀兰市房山王街C座 758335</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>林坤</t>
+          <t>马慧</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18172628561</t>
+          <t>18006290678</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>四川省西安县朝阳潘街w座 133166</t>
+          <t>北京市六安县梁平陈街C座 884476</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>徐岩</t>
+          <t>纪杰</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14595742707</t>
+          <t>15772374571</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>湖北省济南市浔阳阜新街o座 898971</t>
+          <t>上海市呼和浩特市牧野邯郸路k座 884327</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>丁淑华</t>
+          <t>郝志强</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15998463913</t>
+          <t>13409826841</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>山东省福州市城东王街R座 149113</t>
+          <t>云南省雪市合川沈阳街m座 244228</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>谢建华</t>
+          <t>邹桂芳</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13468222856</t>
+          <t>18538660601</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>湖南省燕县双滦李路O座 399778</t>
+          <t>青海省雪县萧山王路C座 598483</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>杨婷</t>
+          <t>秦雷</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15328256919</t>
+          <t>15743340683</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>吉林省台北县怀柔张街U座 511101</t>
+          <t>上海市秀梅县花溪范路K座 197540</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>王桂花</t>
+          <t>翟梅</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>18228629670</t>
+          <t>18937645554</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>贵州省昆明市西夏魏路K座 796851</t>
+          <t>江西省梧州县闵行杭州路M座 211119</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>刘琳</t>
+          <t>刘桂芝</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>13795226366</t>
+          <t>15063567595</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>安徽省淮安县浔阳杭州街S座 278654</t>
+          <t>湖北省玉英县沙湾张街u座 453880</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>马宇</t>
+          <t>李艳</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>13293991905</t>
+          <t>13883459193</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>江苏省鑫市东丽阜新路y座 420489</t>
+          <t>湖南省汕尾市东丽孔街B座 357933</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>雷淑英</t>
+          <t>陈英</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15372966750</t>
+          <t>13324602468</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>河北省静县房山香港街V座 639502</t>
+          <t>香港特别行政区玲市门头沟谢街L座 188141</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>汪鑫</t>
+          <t>李娜</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>13615062208</t>
+          <t>18244743031</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>河南省银川市沙市贵阳路O座 767609</t>
+          <t>澳门特别行政区哈尔滨县徐汇黄路q座 547923</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>潘明</t>
+          <t>李玉英</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>15019181297</t>
+          <t>15266702264</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>河南省梅县沙市陈路z座 340364</t>
+          <t>贵州省晨县新城孙路G座 474469</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>刘丹丹</t>
+          <t>涂金凤</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13760510565</t>
+          <t>18559382453</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>安徽省想市大东孙街g座 175745</t>
+          <t>安徽省博市朝阳重庆路G座 898119</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>许兰英</t>
+          <t>陈桂英</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13606227825</t>
+          <t>15378538394</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>黑龙江省六安县沈河马街W座 485673</t>
+          <t>北京市莹市西峰邓路K座 148941</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>唐玉梅</t>
+          <t>吴莹</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>18828878185</t>
+          <t>13620738097</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>安徽省明市徐汇梧州路G座 675248</t>
+          <t>山西省澳门市清城兴城街I座 706322</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>温瑜</t>
+          <t>罗丽华</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>18698828339</t>
+          <t>13252424583</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>江西省澳门县璧山平街c座 402890</t>
+          <t>天津市建华市崇文郭路f座 205841</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>曹桂英</t>
+          <t>李燕</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>15019313146</t>
+          <t>14563496243</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>青海省杭州市合川孙路W座 569181</t>
+          <t>内蒙古自治区淑英市大兴严路Y座 318095</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>涂欢</t>
+          <t>戴彬</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>15593119558</t>
+          <t>13229017759</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>黑龙江省西宁市和平陈街H座 680223</t>
+          <t>福建省西宁市上街乌鲁木齐路S座 237298</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>阎坤</t>
+          <t>雷桂芝</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>15293016940</t>
+          <t>15153613201</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>辽宁省成都市梁平刘路w座 402799</t>
+          <t>山西省璐县清浦张路K座 280457</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>张春梅</t>
+          <t>孙璐</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>15247622615</t>
+          <t>13678473625</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>内蒙古自治区玉英县安次太原路l座 848791</t>
+          <t>青海省玉英市兴山淮安路c座 149896</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>陈斌</t>
+          <t>周彬</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>15184912652</t>
+          <t>13342192878</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>黑龙江省辽阳市梁平大冶街a座 363119</t>
+          <t>安徽省太原县涪城林街n座 467364</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>骆桂英</t>
+          <t>王桂芳</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>13748627931</t>
+          <t>18016637465</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>河北省武汉县西夏乌鲁木齐路s座 127666</t>
+          <t>北京市建军县南溪滕路z座 580455</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>王玉英</t>
+          <t>吕凤兰</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13763134582</t>
+          <t>15570849341</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>青海省洁市翔安马鞍山路K座 662759</t>
+          <t>陕西省哈尔滨县沈河蒋路T座 149042</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>林明</t>
+          <t>王丽娟</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15843949171</t>
+          <t>15389825620</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>新疆维吾尔自治区刚市新城辽阳街t座 809882</t>
+          <t>四川省敏县清城陈路b座 433410</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>彭秀华</t>
+          <t>刘玉华</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>18071354614</t>
+          <t>15572911657</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>广东省杭州市龙潭张家港路w座 404719</t>
+          <t>北京市雪县华龙李路I座 654475</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>邹宁</t>
+          <t>邓平</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>18752866543</t>
+          <t>13859707228</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>吉林省宇县双滦福州街r座 822935</t>
+          <t>贵州省明市孝南刘街y座 236834</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>李杨</t>
+          <t>陈小红</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>18938618597</t>
+          <t>13522009978</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海南省北镇县翔安乌鲁木齐路c座 783099</t>
+          <t>香港特别行政区玉珍市新城蒋路j座 630542</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>吕健</t>
+          <t>赵桂芳</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>18959508605</t>
+          <t>15763854705</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>江苏省健县永川谢街N座 884539</t>
+          <t>陕西省佛山县新城西安街X座 867074</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>马倩</t>
+          <t>杜勇</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>18099815596</t>
+          <t>14531839697</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>河南省太原县山亭刘街g座 197276</t>
+          <t>青海省平市花溪潮州街h座 279369</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>卞淑珍</t>
+          <t>曾柳</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13224458790</t>
+          <t>13467815869</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>广东省英市友好关岭街P座 170542</t>
+          <t>江西省哈尔滨市高明李路e座 764249</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>赫霞</t>
+          <t>黄凤英</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13841926777</t>
+          <t>15090849704</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>浙江省冬梅市合川方街Z座 743812</t>
+          <t>重庆市嘉禾县浔阳马鞍山街p座 774237</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>周金凤</t>
+          <t>高博</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>13536837741</t>
+          <t>13331840914</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>贵州省艳县怀柔永安街m座 214610</t>
+          <t>北京市张家港市翔安梧州街V座 902278</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>袁洁</t>
+          <t>周涛</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>15718954658</t>
+          <t>14751482799</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>四川省红霞县城东石家庄街c座 275931</t>
+          <t>浙江省哈尔滨市沙湾宁德路r座 654744</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>陈红</t>
+          <t>李玉华</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>18947379905</t>
+          <t>14799445218</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>新疆维吾尔自治区呼和浩特县花溪南路Q座 830006</t>
+          <t>北京市慧市萧山甄路F座 797311</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>张秀英</t>
+          <t>皮志强</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>15874274216</t>
+          <t>15192818673</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>湖北省佛山县萧山麻街u座 797908</t>
+          <t>香港特别行政区萍市高港马鞍山街h座 851790</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>黄丽华</t>
+          <t>陈淑英</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>14557438645</t>
+          <t>14540504767</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>吉林省兴城市沙湾兴安盟路c座 441554</t>
+          <t>天津市阜新县滨城张街t座 120826</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>缪莉</t>
+          <t>黄静</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>15309498285</t>
+          <t>15647066863</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>广西壮族自治区济南市淄川关岭街F座 178798</t>
+          <t>北京市淑英市海港王路w座 245198</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>朱娜</t>
+          <t>骆彬</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>13121711331</t>
+          <t>15170999210</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>黑龙江省辽阳市门头沟岳街M座 734260</t>
+          <t>福建省福州县花溪穆路E座 815962</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>赵丹丹</t>
+          <t>曹洁</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>18993042333</t>
+          <t>13089980817</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上海市深圳县兴山兰州路t座 727164</t>
+          <t>福建省秀兰市高坪毛路I座 624363</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>李红霞</t>
+          <t>郭红梅</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>18546614172</t>
+          <t>13075573036</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>内蒙古自治区武汉县清浦张路r座 683948</t>
+          <t>辽宁省柳县东丽辛集街E座 709514</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>董平</t>
+          <t>朱雪</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>15236965883</t>
+          <t>15648945546</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>广西壮族自治区刚市门头沟谭路M座 990237</t>
+          <t>台湾省深圳市花溪孟街e座 547814</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>彭霞</t>
+          <t>江亮</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>13223751187</t>
+          <t>18783903592</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>甘肃省宇县龙潭柳州路L座 475232</t>
+          <t>山东省桂兰县沈北新太原路w座 615977</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>张林</t>
+          <t>李丽</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>13429567983</t>
+          <t>15930198857</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>青海省永安市房山何路v座 347013</t>
+          <t>安徽省南京市海陵贵阳路U座 521641</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>张娟</t>
+          <t>丁涛</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>15959373340</t>
+          <t>13490622608</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>河北省石家庄县双滦郑州路N座 611564</t>
+          <t>福建省凯市清浦宁德街D座 553625</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>崔晶</t>
+          <t>韩丽娟</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>15671140649</t>
+          <t>15544683832</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>江西省成县安次邓路C座 672545</t>
+          <t>香港特别行政区玉市滨城拉萨街E座 618198</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>滕旭</t>
+          <t>包玉兰</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>14596329363</t>
+          <t>18019061107</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>辽宁省芳县秀英天津路K座 569630</t>
+          <t>西藏自治区佛山县江北游路K座 675230</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>戴桂荣</t>
+          <t>钟倩</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>18878014847</t>
+          <t>15536182538</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>河北省阜新市普陀张街u座 234212</t>
+          <t>上海市艳县孝南乌鲁木齐街U座 536344</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>刘秀英</t>
+          <t>邹彬</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>13599673895</t>
+          <t>15271014168</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>云南省明县浔阳张家港街o座 303394</t>
+          <t>四川省小红县江北上海街s座 505269</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>梁志强</t>
+          <t>董莉</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>18869093538</t>
+          <t>18100304802</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>湖南省小红市沙湾莫路Y座 230305</t>
+          <t>山东省淑华县双滦郭街C座 882723</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>张云</t>
+          <t>张兵</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>14522152146</t>
+          <t>14501753064</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>吉林省红霞县沈北新太原街k座 788452</t>
+          <t>云南省鑫县永川柳州街k座 135537</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>张雪梅</t>
+          <t>王林</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>18174950215</t>
+          <t>13529042122</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>四川省东莞县永川赵路m座 307307</t>
+          <t>海南省燕市朝阳王路d座 171458</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>贾玉梅</t>
+          <t>王秀云</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>15937327624</t>
+          <t>18811007147</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上海市璐市萧山佛山街g座 601532</t>
+          <t>内蒙古自治区张家港市沈北新澳门路L座 935596</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>张荣</t>
+          <t>岑娟</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>14522656954</t>
+          <t>15230978855</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>吉林省梅市高港李街B座 670432</t>
+          <t>福建省秀珍市永川张街B座 752062</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>周春梅</t>
+          <t>王鹏</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>18003466075</t>
+          <t>15659405599</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>重庆市凯县大东谭街Z座 929449</t>
+          <t>江西省坤市合川黄街Y座 749787</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>潘旭</t>
+          <t>杨桂芳</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>18643053545</t>
+          <t>13766524425</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>江苏省俊市萧山哈尔滨街l座 588888</t>
+          <t>西藏自治区马鞍山县怀柔兴安盟路B座 853829</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>魏秀芳</t>
+          <t>陈婷</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>14719188253</t>
+          <t>15075336869</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>内蒙古自治区梧州市璧山周街x座 642969</t>
+          <t>北京市丹丹市永川邓街c座 121232</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>李艳</t>
+          <t>冯楠</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>18543656156</t>
+          <t>18677473780</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>内蒙古自治区六盘水市上街孔路X座 578850</t>
+          <t>广西壮族自治区宁德市淄川高路L座 513088</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>郭淑华</t>
+          <t>张柳</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>18228533165</t>
+          <t>15914146602</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>湖北省秀兰市东城嘉禾路W座 817841</t>
+          <t>澳门特别行政区慧县翔安阜新路Y座 407299</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>陈勇</t>
+          <t>陆坤</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>15387202131</t>
+          <t>18171347859</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>浙江省永安市新城哈尔滨街M座 898118</t>
+          <t>湖北省天津市门头沟杭州路O座 400898</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>徐荣</t>
+          <t>王波</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>18830325320</t>
+          <t>18844213377</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>山西省建县璧山东莞路p座 553778</t>
+          <t>山西省乌鲁木齐县高明上海路h座 365464</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>刘想</t>
+          <t>杨建军</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>18299862406</t>
+          <t>15057998831</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海南省鹏市东丽拉萨街I座 552441</t>
+          <t>吉林省颖市江北香港路t座 703107</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>朱云</t>
+          <t>赵莉</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>15297527343</t>
+          <t>18713159511</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>甘肃省玉市高港张家港街x座 140122</t>
+          <t>云南省玉英市花溪俞路J座 343989</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>刘琳</t>
+          <t>揭旭</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>18666657067</t>
+          <t>15738736157</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>青海省畅市孝南向路e座 137677</t>
+          <t>陕西省南昌市孝南哈尔滨街k座 832910</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>王亮</t>
+          <t>汪平</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>13044865681</t>
+          <t>13359937194</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>香港特别行政区北镇县清河武汉街K座 155300</t>
+          <t>湖北省澳门县孝南荆门街Z座 350700</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>赵艳</t>
+          <t>陈凤兰</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>14598341496</t>
+          <t>15729631686</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>甘肃省合肥市清浦程街k座 644823</t>
+          <t>海南省岩县大东苏路Q座 504588</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>周桂英</t>
+          <t>高杰</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>13626705452</t>
+          <t>13099919697</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>浙江省玉珍县高坪天津街n座 631918</t>
+          <t>内蒙古自治区兵县长寿刘街t座 507511</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>叶楠</t>
+          <t>汪娟</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>13878063241</t>
+          <t>15221281072</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>辽宁省秀芳县江北陶路I座 542111</t>
+          <t>西藏自治区六盘水市城东阎街i座 309998</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>尹燕</t>
+          <t>尹金凤</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>15611395783</t>
+          <t>13353520894</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>黑龙江省潮州市海陵张家港街Z座 519394</t>
+          <t>北京市邯郸县海陵永安街M座 443582</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>许云</t>
+          <t>鲁建华</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>15019011776</t>
+          <t>15554959714</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>甘肃省哈尔滨市丰都柳州路U座 104675</t>
+          <t>甘肃省佛山市大东马路p座 951017</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>梁龙</t>
+          <t>周秀芳</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>14778196105</t>
+          <t>15069957305</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>山西省西安市怀柔林街x座 206484</t>
+          <t>北京市海燕县白云乌鲁木齐街b座 210149</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>王红梅</t>
+          <t>潘桂兰</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>13136909091</t>
+          <t>15724881485</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>青海省海口县山亭卢街z座 139926</t>
+          <t>福建省关岭市丰都昆明路m座 954475</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>鞠莹</t>
+          <t>杨辉</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>15260548638</t>
+          <t>13829427599</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>浙江省北镇县闵行潜江路z座 827459</t>
+          <t>江苏省汕尾市西峰长沙路W座 231125</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>马峰</t>
+          <t>王玉</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>13683526351</t>
+          <t>15586167604</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>江苏省兰英县海港辛集街q座 994805</t>
+          <t>浙江省永安市花溪乌鲁木齐路i座 413702</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>吴秀荣</t>
+          <t>胡红霞</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>15918668878</t>
+          <t>18023559909</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>河北省宇县怀柔顾街L座 986381</t>
+          <t>香港特别行政区秀珍市新城杨路b座 152241</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>张凤英</t>
+          <t>刘晨</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>13547607102</t>
+          <t>18661643899</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>台湾省海口市永川广州路y座 286715</t>
+          <t>江西省倩市梁平宋路E座 657160</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>黄健</t>
+          <t>顾淑兰</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>14566792017</t>
+          <t>14589420088</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>福建省马鞍山县六枝特通辽街q座 560521</t>
+          <t>上海市柳州市沈北新兴城街g座 791018</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>丁建军</t>
+          <t>王倩</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>13584072321</t>
+          <t>13306731235</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>上海市惠州县兴山王路k座 698004</t>
+          <t>广东省嘉禾县花溪潮州路P座 510085</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>陈凤兰</t>
+          <t>吴丹</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>13733470653</t>
+          <t>18104016458</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>宁夏回族自治区建军县清河长沙街D座 280522</t>
+          <t>宁夏回族自治区丹市清河杨街t座 268335</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>邓敏</t>
+          <t>刘建军</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>13132123016</t>
+          <t>13754618756</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>陕西省桂芳市南湖南京街Y座 619875</t>
+          <t>广西壮族自治区玉兰县大兴阮路L座 409453</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>李静</t>
+          <t>刘建华</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>13059429529</t>
+          <t>18237324921</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>天津市桂芝市沈北新梧州路g座 248159</t>
+          <t>山东省彬市六枝特陈街r座 555451</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>黄帅</t>
+          <t>王桂香</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>13959472438</t>
+          <t>15239365209</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>重庆市香港市清城林街g座 232649</t>
+          <t>安徽省桂珍县淄川丁街W座 212622</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>陈峰</t>
+          <t>王明</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>15195727124</t>
+          <t>18625832959</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>上海市杨市朝阳王路A座 376798</t>
+          <t>浙江省志强县大兴李路G座 754938</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>张涛</t>
+          <t>颜芳</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>15223754001</t>
+          <t>14709964648</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>河南省天津县高明冯路j座 145350</t>
+          <t>青海省兴安盟市沈河李路g座 944548</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>贾秀梅</t>
+          <t>丁琳</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>14761345229</t>
+          <t>18835750488</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>江西省桂花县黄浦周路S座 909837</t>
+          <t>辽宁省兰英县魏都刘街Y座 383893</t>
         </is>
       </c>
     </row>
